--- a/Data/Transitions/19381939Translation.xlsx
+++ b/Data/Transitions/19381939Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="597">
   <si>
     <t>id</t>
   </si>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -361,7 +361,7 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -373,7 +373,7 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9265587147775086}</t>
+    <t>{202.0: 0.926624203821656}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -541,7 +544,7 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 783.0: 0.0003181673560292714}</t>
+    <t>{430.0: 1.0, 783.0: 0.0003204101249599487}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907}</t>
+    <t>{595.0: 0.9982672138622891}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.9963536918869644}</t>
+    <t>{634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1222,7 +1222,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1246,7 +1246,7 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979}</t>
+    <t>{695.0: 0.9820117474302497}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 1.0, 634.0: 0.0036463081130355514}</t>
+    <t>{757.0: 1.0, 634.0: 0.0035103115401491883}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1402,7 +1402,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 202.0: 0.0734412852224914}</t>
+    <t>{853.0: 1.0, 202.0: 0.07337579617834394}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1753,22 +1753,19 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.9957854406130269}</t>
-  </si>
-  <si>
-    <t>{107.0: 1.0}</t>
+    <t>{992.0: 0.9957918898240244}</t>
   </si>
   <si>
     <t>{174.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.997171812396889, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{182.0: 0.9971607713237903, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1777,7 +1774,7 @@
     <t>{282.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.9996376811594203, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1786,16 +1783,16 @@
     <t>{634.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458069, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.9970781592403214, 634.0: 0.0029218407596785976}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{757.0: 0.9966315789473684, 634.0: 0.003368421052631579}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1804,7 +1801,7 @@
     <t>{853.0: 0.9921089404608598, 202.0: 0.007891059539140204}</t>
   </si>
   <si>
-    <t>{857.0: 0.9927664599940951, 695.0: 0.00723354000590493}</t>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -3015,7 +3012,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>580</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3334,7 +3331,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3422,7 +3419,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3466,7 +3463,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3867,7 +3864,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3878,7 +3875,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3889,7 +3886,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3911,7 +3908,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3922,7 +3919,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3944,7 +3941,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3955,7 +3952,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3977,7 +3974,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3988,7 +3985,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4010,7 +4007,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4021,7 +4018,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4032,7 +4029,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4043,7 +4040,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4054,7 +4051,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4065,7 +4062,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4076,29 +4073,29 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>584</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4120,7 +4117,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4131,7 +4128,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4142,7 +4139,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4153,7 +4150,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4164,7 +4161,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4186,7 +4183,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4208,29 +4205,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>585</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>584</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4252,7 +4249,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4263,29 +4260,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>586</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4296,7 +4293,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4307,7 +4304,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4318,7 +4315,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4329,7 +4326,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4340,7 +4337,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4351,7 +4348,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4373,7 +4370,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4406,7 +4403,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4417,7 +4414,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4428,7 +4425,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4439,7 +4436,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4461,7 +4458,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4472,7 +4469,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4483,7 +4480,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4494,7 +4491,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4516,7 +4513,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4538,7 +4535,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4560,7 +4557,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4571,7 +4568,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4582,7 +4579,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4604,7 +4601,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4615,7 +4612,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4626,7 +4623,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4637,7 +4634,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4648,7 +4645,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4659,7 +4656,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4670,7 +4667,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -5006,7 +5003,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6018,7 +6015,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6447,7 +6444,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6579,7 +6576,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6667,7 +6664,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7096,7 +7093,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7239,7 +7236,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7371,7 +7368,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7690,7 +7687,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7734,7 +7731,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8526,7 +8523,7 @@
         <v>579</v>
       </c>
       <c r="C578" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
